--- a/rename.xlsx
+++ b/rename.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>hhjh</t>
   </si>
   <si>
     <t xml:space="preserve"> bn b bbnbnn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vvm fmv fm vf v fs vm sv scv s </t>
   </si>
 </sst>
 </file>
@@ -360,22 +363,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C5"/>
+  <dimension ref="B4:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
